--- a/data/trans_camb/P2A_senso_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-1.921235761410282</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.06764736460061482</v>
+        <v>0.06764736460061552</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.7971436856117</v>
+        <v>-3.827551178014287</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.242789612593014</v>
+        <v>-4.049860557798786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.422446745067333</v>
+        <v>-2.253145953895842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.155416576084535</v>
+        <v>-2.215231138445335</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.140087047171994</v>
+        <v>-3.221055870760334</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.435042066407656</v>
+        <v>-1.536586830667913</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.409402390504669</v>
+        <v>-2.374213265803559</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.047296389207543</v>
+        <v>-3.035885681179477</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.307216644179262</v>
+        <v>-1.180377006526398</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1770478725367396</v>
+        <v>-0.2028606121132328</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.7277302273235884</v>
+        <v>-0.5778967649628388</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.362318849946878</v>
+        <v>2.329775644178393</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9064916341808491</v>
+        <v>0.9830796588998981</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.4968862930521886</v>
+        <v>-0.5045352878726478</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.686236006706793</v>
+        <v>1.601169645726109</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.09569314947568837</v>
+        <v>-0.09347747879337291</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.7702666455489423</v>
+        <v>-0.8345027116242637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.575380817118096</v>
+        <v>1.48844779769138</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.5878340851591508</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.02069783806972245</v>
+        <v>0.02069783806972266</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7596257912845731</v>
+        <v>-0.7680063760211633</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8398580766947249</v>
+        <v>-0.8080315328624812</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5159264779937111</v>
+        <v>-0.5031026790612467</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5269220197513961</v>
+        <v>-0.5356787561337314</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7736561251867178</v>
+        <v>-0.7653337298604579</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.359406973463624</v>
+        <v>-0.4009738305356899</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5640549179709182</v>
+        <v>-0.5799812842504881</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7546770589071633</v>
+        <v>-0.7492424358040458</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3421925788132397</v>
+        <v>-0.3073239461328603</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.04945381329041005</v>
+        <v>-0.06281011947069387</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2552280827165993</v>
+        <v>-0.1942308089738241</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9276711710580456</v>
+        <v>1.014554906325457</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3957811209417686</v>
+        <v>0.4435503150714015</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1982835667411426</v>
+        <v>-0.185766588555201</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7068161130260175</v>
+        <v>0.6978319967915702</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.01085854887465381</v>
+        <v>-0.02606696686396396</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.291881367541252</v>
+        <v>-0.3161551595735606</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6160323854736688</v>
+        <v>0.5430122882653452</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.2309139656125165</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.110663202011839</v>
+        <v>2.110663202011838</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03178514201215582</v>
+        <v>0.2117950900861935</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.044752551188277</v>
+        <v>-1.019426995907593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1688905537346967</v>
+        <v>0.1065936930432727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1465410573044647</v>
+        <v>-0.2359891978781224</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.110751775695419</v>
+        <v>-1.116442376389079</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.708776474418925</v>
+        <v>1.778974378512828</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2286682523911145</v>
+        <v>0.251548700052003</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8736430780829311</v>
+        <v>-0.8358971556707679</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.313882654868975</v>
+        <v>1.31545241351968</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.613441149264518</v>
+        <v>2.663802617934507</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8646786793791248</v>
+        <v>0.7160986380415016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.395387075954235</v>
+        <v>2.336597097400923</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.980599057644171</v>
+        <v>1.95108563026709</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.602656237406542</v>
+        <v>0.6308930038258068</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.0220361353845</v>
+        <v>4.070341091065846</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.973106486540527</v>
+        <v>1.883313804493849</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3757651673516331</v>
+        <v>0.4693642811142448</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.92078812620877</v>
+        <v>2.936673431666134</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.2065044805523567</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.887548927568213</v>
+        <v>1.887548927568212</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05808917198757439</v>
+        <v>0.08244992842557669</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.685627792148824</v>
+        <v>-0.6739917453166614</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03087809455859174</v>
+        <v>-0.003042258378438423</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1797979273961896</v>
+        <v>-0.209835167785706</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7443711531724184</v>
+        <v>-0.7136481553608472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8781833422896392</v>
+        <v>1.007548028557671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1244213109311051</v>
+        <v>0.1492159717876989</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6189556851460468</v>
+        <v>-0.6047768773226684</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8909293402326002</v>
+        <v>0.8513949392995911</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.444427449715165</v>
+        <v>3.835921603202122</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.436728795981062</v>
+        <v>1.313468747329857</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.61060988818565</v>
+        <v>3.113776026006851</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.098687239682609</v>
+        <v>2.883659845086967</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9866936035197371</v>
+        <v>0.9573352097391072</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6.140681565812409</v>
+        <v>6.327700087449311</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.405997660388025</v>
+        <v>2.399993561666242</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.478095459348293</v>
+        <v>0.566873605903446</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.882293952079021</v>
+        <v>3.737516283519792</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.2115255612208254</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.970796311453361</v>
+        <v>1.970796311453362</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.8616274558367933</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.655409735615526</v>
+        <v>-0.7026957029262139</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.216394032687241</v>
+        <v>-1.260151763419352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1084260914957788</v>
+        <v>0.0003664578882398727</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3863326725053744</v>
+        <v>0.3627276426236517</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9465007827151097</v>
+        <v>-0.9014379955749043</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9535760448672316</v>
+        <v>0.8928491671699911</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04245290387599683</v>
+        <v>0.05385312674628633</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8784154181555032</v>
+        <v>-0.909317258096194</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7082220159246563</v>
+        <v>0.6372264156226685</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.70488221370061</v>
+        <v>1.621228843060319</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5936687096195867</v>
+        <v>0.7033848750201874</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.351628943860006</v>
+        <v>2.310125288428202</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.657515386329055</v>
+        <v>2.565625900499025</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5246976275396908</v>
+        <v>0.4761244253212349</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.217568767234517</v>
+        <v>3.387313353137899</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.661653039849549</v>
+        <v>1.724666411957248</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2950126163877486</v>
+        <v>0.2989027314526023</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.376607649180886</v>
+        <v>2.379969664552517</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2639499041731239</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.459237051780228</v>
+        <v>2.459237051780229</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.851255029370737</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4701221139597914</v>
+        <v>-0.4659800081214169</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8607108451024266</v>
+        <v>-0.798216673183094</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1464516795015163</v>
+        <v>-0.05592188462432413</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2287521550651138</v>
+        <v>0.2008096457625265</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8321732899830749</v>
+        <v>-0.816546566919774</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6273490890171268</v>
+        <v>0.6240359281007144</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02769331455915389</v>
+        <v>-0.002356302478401166</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.693554534380716</v>
+        <v>-0.7048757104574067</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4977723748345855</v>
+        <v>0.4008625612463385</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.071632540175561</v>
+        <v>1.900699447550232</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7476277722449078</v>
+        <v>1.307613464498625</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.612775827421258</v>
+        <v>2.894285621243039</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.778014166722864</v>
+        <v>5.348081582660072</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.444056714097741</v>
+        <v>1.206429747730516</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>8.949485361524809</v>
+        <v>7.833562083572041</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.196635008694646</v>
+        <v>2.196727559146416</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4917703159217954</v>
+        <v>0.4949049820289322</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.987546142920739</v>
+        <v>3.063026393601415</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.460860661295863</v>
+        <v>-1.518410529408802</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.272106416400175</v>
+        <v>-1.455762877075875</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0397434684446781</v>
+        <v>-0.07600371244281864</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.869000568697713</v>
+        <v>-1.699446885126404</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.655537869650557</v>
+        <v>-1.86804517619937</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.620664082316573</v>
+        <v>-0.6257043422689423</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9394001287686521</v>
+        <v>-0.9946922578145995</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.113475086716744</v>
+        <v>-1.097043894010145</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.34558427278735</v>
+        <v>0.3245743195678198</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7205584043432887</v>
+        <v>0.7284804557293612</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9343656008575695</v>
+        <v>0.9484471256042786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.953694657422214</v>
+        <v>2.864795691825473</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.920718525984384</v>
+        <v>2.219112326870607</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.047818304533652</v>
+        <v>1.972985240752146</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.697395334542523</v>
+        <v>2.662504283212354</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.027159304047639</v>
+        <v>1.052584455209589</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9697233009758683</v>
+        <v>0.9912673388265218</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.423213601742936</v>
+        <v>2.466360367918908</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.02205971564519344</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.307539753097674</v>
+        <v>1.307539753097673</v>
       </c>
     </row>
     <row r="26">
@@ -1422,27 +1422,27 @@
         </is>
       </c>
       <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.2138828942322537</v>
-      </c>
-      <c r="F26" s="6" t="inlineStr"/>
+        <v>-0.3443241974254159</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.7981035129564201</v>
+      </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7646926392081568</v>
+        <v>-0.8041389651162403</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2835751236422366</v>
+        <v>-0.2311479458873084</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6228169467245696</v>
+        <v>-0.6502522884691857</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6996945821430594</v>
+        <v>-0.6706101959265734</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1066592400323529</v>
+        <v>0.0943111144796256</v>
       </c>
     </row>
     <row r="27">
@@ -1455,23 +1455,25 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>11.65044468505194</v>
-      </c>
-      <c r="F27" s="6" t="inlineStr"/>
+        <v>9.733770789108725</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>4.414148886021494</v>
+      </c>
       <c r="G27" s="6" t="n">
-        <v>3.459273863477117</v>
+        <v>3.528146287914012</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.596529602002985</v>
+        <v>5.050354090451258</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.730819575070066</v>
+        <v>1.976717298277841</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.800999142489275</v>
+        <v>1.918029788603993</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.949292815109201</v>
+        <v>4.712851426732629</v>
       </c>
     </row>
     <row r="28">
@@ -1501,7 +1503,7 @@
         <v>-0.5367868882123606</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.606148216903103</v>
+        <v>1.606148216903104</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.3620319541584993</v>
@@ -1521,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4610662859377355</v>
+        <v>-0.4778835809237926</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.097276305239642</v>
+        <v>-1.088525769407995</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2513013698111718</v>
+        <v>0.2501382165152932</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.05058074418628482</v>
+        <v>-0.06593581212674619</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.114011204380022</v>
+        <v>-1.133478179829132</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8660469858769637</v>
+        <v>0.9669062029778461</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.08222329468025043</v>
+        <v>-0.1378916415298836</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.9412627369436297</v>
+        <v>-0.9490913069536885</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8253683546143815</v>
+        <v>0.764443225153402</v>
       </c>
     </row>
     <row r="30">
@@ -1556,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8548191053614546</v>
+        <v>0.8191441460443918</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.127745035538518</v>
+        <v>0.1024654078546656</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.643731605662137</v>
+        <v>1.68826708646282</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.271728254997013</v>
+        <v>1.232816440556489</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06553795737655344</v>
+        <v>0.02607868710271677</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.266006686080807</v>
+        <v>2.292021546961605</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8311738318615415</v>
+        <v>0.7806459053972549</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.1580362504815866</v>
+        <v>-0.170348962169825</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.754906357393452</v>
+        <v>1.733957060916268</v>
       </c>
     </row>
     <row r="31">
@@ -1606,7 +1608,7 @@
         <v>-0.3341628899971807</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9998663188505965</v>
+        <v>0.999866318850597</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2298613619109257</v>
@@ -1626,31 +1628,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2649233513781651</v>
+        <v>-0.258321707158281</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.587621973457029</v>
+        <v>-0.5974689386062145</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1207223398234336</v>
+        <v>0.1273059635553825</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03375152988662749</v>
+        <v>-0.04312329827347615</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5775288937127723</v>
+        <v>-0.5593845662871401</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4115910697127977</v>
+        <v>0.4916390016849962</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05128996740778542</v>
+        <v>-0.07802531089000485</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5200176102839069</v>
+        <v>-0.5281346483167207</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4279665864089321</v>
+        <v>0.419972639494841</v>
       </c>
     </row>
     <row r="33">
@@ -1661,31 +1663,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7006717465052827</v>
+        <v>0.6559696183846262</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1194321287718403</v>
+        <v>0.09293906085491528</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.377412608067927</v>
+        <v>1.356488526814785</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.973569570029639</v>
+        <v>0.9346684756794703</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08171022830585119</v>
+        <v>0.02938693908237038</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.734285034723982</v>
+        <v>1.726840330970447</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6019209426418477</v>
+        <v>0.5685908659570379</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1011567968107441</v>
+        <v>-0.1183444260832999</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.249547651931451</v>
+        <v>1.299807988738112</v>
       </c>
     </row>
     <row r="34">
